--- a/CNPM_NC/OKA1-KS-Project Plan V2.xlsx
+++ b/CNPM_NC/OKA1-KS-Project Plan V2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\DoAn1\CNPM_NC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBBF997-4764-4749-AC97-37CC643191A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="Task_Group">Ref!$D$2:$D$6</definedName>
     <definedName name="Xác_suất_rủi_ro">Ref!$C$2:$C$6</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="176">
   <si>
     <t>Task</t>
   </si>
@@ -607,11 +608,38 @@
   <si>
     <t>StartULM</t>
   </si>
+  <si>
+    <t xml:space="preserve">Outsource không gặp mặt trực tiếp sẽ không kiểm tra được chất lượng. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">outsource-contractor không đáp ứng kịp thời gian hoàn thành </t>
+  </si>
+  <si>
+    <t>Gấp rút đặt deadline cho outsource-contractor hoàn thành sớm hơn dự tính</t>
+  </si>
+  <si>
+    <t>Mức chi phí do outsource-contractor đưa ra không phù hợp với ngân sách.</t>
+  </si>
+  <si>
+    <t>Tài,Khoa</t>
+  </si>
+  <si>
+    <t>Nam,Đại</t>
+  </si>
+  <si>
+    <t>Thương lượng với outsource-contractor để đưa ra một mức giá hợp lý</t>
+  </si>
+  <si>
+    <t>Không tìm được người có thể đáp ứng được nhu cầu.</t>
+  </si>
+  <si>
+    <t>Mở rộng giới hạn tìm kiếm để tìm được các outsource-contractor có thể đáp ứng được nhu cầu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1004,6 +1032,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1025,8 +1055,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1120,6 +1148,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1155,6 +1200,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1330,10 +1392,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
@@ -1740,25 +1802,25 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="68" t="s">
+      <c r="A19" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="68" t="s">
+      <c r="D19" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="68" t="s">
+      <c r="E19" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="F19" s="68" t="s">
+      <c r="F19" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="G19" s="68">
+      <c r="G19" s="61">
         <v>100</v>
       </c>
       <c r="H19" s="18" t="s">
@@ -1792,10 +1854,10 @@
       <c r="D21" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E21" s="69">
+      <c r="E21" s="62">
         <v>44287</v>
       </c>
-      <c r="F21" s="69">
+      <c r="F21" s="62">
         <v>44288</v>
       </c>
       <c r="G21" s="1">
@@ -3271,10 +3333,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66 B100 A2:A18 A20:A127">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66 B100 A2:A18 A20:A127" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Task_Group</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D18 C20:D127">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D18 C20:D127" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Member</formula1>
     </dataValidation>
   </dataValidations>
@@ -3284,16 +3346,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
@@ -3306,7 +3368,7 @@
     <col min="11" max="11" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
@@ -3373,7 +3435,7 @@
     </row>
     <row r="3" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <f t="shared" ref="A3:A19" si="0">(A2+1)</f>
+        <f t="shared" ref="A3:A14" si="0">(A2+1)</f>
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -3450,7 +3512,9 @@
       <c r="D5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="F5" s="10">
         <v>5</v>
       </c>
@@ -3458,7 +3522,7 @@
         <v>0.5</v>
       </c>
       <c r="H5" s="19">
-        <f t="shared" ref="H5:H19" si="1">F5*G5</f>
+        <f t="shared" ref="H5:H14" si="1">F5*G5</f>
         <v>2.5</v>
       </c>
       <c r="I5" s="10" t="s">
@@ -3479,7 +3543,9 @@
       <c r="D6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="F6" s="10">
         <v>5</v>
       </c>
@@ -3508,7 +3574,9 @@
       <c r="D7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="F7" s="10">
         <v>5</v>
       </c>
@@ -3596,31 +3664,38 @@
     </row>
     <row r="10" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>167</v>
+      </c>
       <c r="D10" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="F10" s="10">
+        <v>3</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0.75</v>
+      </c>
       <c r="H10" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="10"/>
+        <v>2.25</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="J10" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3628,19 +3703,31 @@
       <c r="B11" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="9" t="s">
+        <v>168</v>
+      </c>
       <c r="D11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
+      <c r="E11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="10">
+        <v>2</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0.25</v>
+      </c>
       <c r="H11" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
@@ -3650,19 +3737,31 @@
       <c r="B12" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>170</v>
+      </c>
       <c r="D12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="10">
+        <v>3</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0.25</v>
+      </c>
       <c r="H12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
@@ -3672,19 +3771,31 @@
       <c r="B13" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="9" t="s">
+        <v>174</v>
+      </c>
       <c r="D13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
+      <c r="E13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0.1</v>
+      </c>
       <c r="H13" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="9"/>
+        <v>0.1</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
@@ -3704,128 +3815,38 @@
       <c r="I14" s="10"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="9"/>
-    </row>
   </sheetData>
-  <sortState ref="A2:J16">
-    <sortCondition descending="1" ref="H2:H16"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J14">
+    <sortCondition descending="1" ref="H2:H14"/>
   </sortState>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E14" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Risk_group</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F14" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>Mức_độ_rủi_ro</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G14" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>Xác_suất_rủi_ro</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D14" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>Risk_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I14" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>Strategy_Type</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3904,6 +3925,9 @@
       <c r="F3" t="s">
         <v>37</v>
       </c>
+      <c r="G3" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -3924,6 +3948,9 @@
       <c r="F4" t="s">
         <v>38</v>
       </c>
+      <c r="G4" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -3941,6 +3968,9 @@
       <c r="E5" t="s">
         <v>33</v>
       </c>
+      <c r="G5" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -3955,10 +3985,21 @@
       <c r="E6" t="s">
         <v>29</v>
       </c>
+      <c r="G6" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3968,10 +4009,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C3:O15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -3986,14 +4027,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
       <c r="L3" s="47"/>
       <c r="M3" s="47"/>
       <c r="N3" s="47"/>
@@ -4083,11 +4124,11 @@
       <c r="C8" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
       <c r="L8" s="43"/>
       <c r="M8" s="46"/>
       <c r="N8" s="43"/>
@@ -4141,11 +4182,11 @@
       <c r="C11" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="66"/>
       <c r="L11" s="43"/>
       <c r="M11" s="46"/>
       <c r="N11" s="43"/>
@@ -4177,11 +4218,11 @@
       <c r="C13" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="66"/>
       <c r="L13" s="43"/>
       <c r="M13" s="46"/>
       <c r="N13" s="43"/>
@@ -4241,10 +4282,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -4254,63 +4295,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="30" t="s">
@@ -4352,19 +4393,19 @@
       <c r="B14" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4380,23 +4421,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="01ab4044-55ac-417a-a05c-524e91f95e54" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010012BF593B6B9D8D409928A49D2E8BC77A" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="152f0301ae63e422ee5ddadeadb62918">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="01ab4044-55ac-417a-a05c-524e91f95e54" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a8304427d3a329948f5dfd83b5c82c1e" ns2:_="">
     <xsd:import namespace="01ab4044-55ac-417a-a05c-524e91f95e54"/>
@@ -4560,10 +4584,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="01ab4044-55ac-417a-a05c-524e91f95e54" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FA7504C-E796-438C-954D-928676B5E4C3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3066AEA0-0FA6-495C-AAA8-40CE6505BA3C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="01ab4044-55ac-417a-a05c-524e91f95e54"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4579,19 +4630,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3066AEA0-0FA6-495C-AAA8-40CE6505BA3C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FA7504C-E796-438C-954D-928676B5E4C3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="01ab4044-55ac-417a-a05c-524e91f95e54"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/CNPM_NC/OKA1-KS-Project Plan V2.xlsx
+++ b/CNPM_NC/OKA1-KS-Project Plan V2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tran Quoc Dai\Desktop\Study\DoAn1\CNPM_NC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10619A8-FFDC-4A8C-9970-5DB550E81630}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="Task_Group">Ref!$D$2:$D$6</definedName>
     <definedName name="Xác_suất_rủi_ro">Ref!$C$2:$C$6</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="165">
   <si>
     <t>Task</t>
   </si>
@@ -247,9 +248,6 @@
   </si>
   <si>
     <t>- Thiết kế giao diện</t>
-  </si>
-  <si>
-    <t>Dùng &lt;tên tool&gt;</t>
   </si>
   <si>
     <t>Trễ deadline</t>
@@ -512,9 +510,6 @@
     <t>Nam</t>
   </si>
   <si>
-    <t>Tây</t>
-  </si>
-  <si>
     <t>Tài</t>
   </si>
   <si>
@@ -611,7 +606,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1004,6 +999,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1025,8 +1022,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1120,6 +1115,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1155,6 +1167,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1330,11 +1359,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -1380,25 +1409,25 @@
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>146</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>148</v>
       </c>
       <c r="G2" s="1">
         <v>100</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1412,19 +1441,19 @@
         <v>40</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="G3" s="1">
         <v>100</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1432,19 +1461,19 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G4" s="1">
         <v>100</v>
@@ -1456,19 +1485,19 @@
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G5" s="1">
         <v>100</v>
@@ -1480,19 +1509,19 @@
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G6" s="1">
         <v>100</v>
@@ -1504,19 +1533,19 @@
         <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G7" s="1">
         <v>100</v>
@@ -1540,7 +1569,7 @@
         <v>100</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1548,7 +1577,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>40</v>
@@ -1571,7 +1600,7 @@
         <v>51</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1600,7 +1629,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1614,7 +1643,7 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>40</v>
@@ -1624,13 +1653,13 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>40</v>
@@ -1642,13 +1671,13 @@
         <v>100</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>40</v>
@@ -1666,25 +1695,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G16" s="1">
         <v>100</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1692,25 +1721,25 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G17" s="1">
         <v>100</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1718,51 +1747,51 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G18" s="1">
         <v>100</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="68" t="s">
+      <c r="A19" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" s="61">
+        <v>100</v>
+      </c>
+      <c r="H19" s="18" t="s">
         <v>162</v>
-      </c>
-      <c r="C19" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="68" t="s">
-        <v>145</v>
-      </c>
-      <c r="E19" s="68" t="s">
-        <v>147</v>
-      </c>
-      <c r="F19" s="68" t="s">
-        <v>163</v>
-      </c>
-      <c r="G19" s="68">
-        <v>100</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1787,22 +1816,22 @@
         <v>53</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E21" s="69">
+        <v>163</v>
+      </c>
+      <c r="E21" s="62">
         <v>44287</v>
       </c>
-      <c r="F21" s="69">
+      <c r="F21" s="62">
         <v>44288</v>
       </c>
       <c r="G21" s="1">
         <v>100</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1814,13 +1843,13 @@
         <v>40</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G22" s="1">
         <v>100</v>
@@ -1836,13 +1865,13 @@
         <v>40</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G23" s="1">
         <v>100</v>
@@ -1852,7 +1881,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1870,13 +1899,13 @@
         <v>40</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G25" s="1">
         <v>100</v>
@@ -1886,7 +1915,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1901,16 +1930,16 @@
         <v>59</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G27" s="1">
         <v>100</v>
@@ -1925,16 +1954,16 @@
         <v>61</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G28" s="1">
         <v>100</v>
@@ -1949,16 +1978,16 @@
         <v>62</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G29" s="1">
         <v>100</v>
@@ -1973,16 +2002,16 @@
         <v>63</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G30" s="1">
         <v>100</v>
@@ -1997,16 +2026,16 @@
         <v>64</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G31" s="1">
         <v>100</v>
@@ -2018,7 +2047,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2033,16 +2062,16 @@
         <v>59</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G33" s="1">
         <v>100</v>
@@ -2055,16 +2084,16 @@
         <v>61</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G34" s="1">
         <v>100</v>
@@ -2077,16 +2106,16 @@
         <v>62</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G35" s="1">
         <v>100</v>
@@ -2099,16 +2128,16 @@
         <v>63</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G36" s="1">
         <v>100</v>
@@ -2121,16 +2150,16 @@
         <v>64</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G37" s="1">
         <v>100</v>
@@ -2140,7 +2169,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2155,16 +2184,16 @@
         <v>59</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G39" s="1">
         <v>100</v>
@@ -2177,16 +2206,16 @@
         <v>61</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G40" s="1">
         <v>100</v>
@@ -2199,16 +2228,16 @@
         <v>62</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G41" s="1">
         <v>100</v>
@@ -2221,16 +2250,16 @@
         <v>63</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G42" s="1">
         <v>100</v>
@@ -2243,16 +2272,16 @@
         <v>64</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G43" s="1">
         <v>100</v>
@@ -2265,22 +2294,22 @@
         <v>66</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G44" s="1">
         <v>100</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2289,28 +2318,28 @@
         <v>67</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G45" s="1">
         <v>100</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2325,16 +2354,16 @@
         <v>59</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G47" s="1">
         <v>70</v>
@@ -2347,16 +2376,16 @@
         <v>61</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G48" s="1">
         <v>70</v>
@@ -2369,16 +2398,16 @@
         <v>62</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G49" s="1">
         <v>70</v>
@@ -2391,16 +2420,16 @@
         <v>63</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G50" s="1">
         <v>70</v>
@@ -2413,16 +2442,16 @@
         <v>64</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G51" s="1">
         <v>70</v>
@@ -2442,19 +2471,19 @@
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G53" s="1">
         <v>70</v>
@@ -2464,11 +2493,9 @@
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>135</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -2478,7 +2505,7 @@
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2505,16 +2532,16 @@
         <v>66</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G57" s="1">
         <v>70</v>
@@ -2526,7 +2553,7 @@
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2538,7 +2565,7 @@
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2553,11 +2580,17 @@
         <v>59</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
+        <v>134</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="G60" s="1"/>
       <c r="H60" s="17"/>
     </row>
@@ -2567,11 +2600,17 @@
         <v>61</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="G61" s="1"/>
       <c r="H61" s="17"/>
     </row>
@@ -2581,11 +2620,17 @@
         <v>62</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="G62" s="1"/>
       <c r="H62" s="17"/>
     </row>
@@ -2595,11 +2640,17 @@
         <v>63</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="G63" s="1"/>
       <c r="H63" s="17"/>
     </row>
@@ -2609,18 +2660,24 @@
         <v>64</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
+        <v>133</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="G64" s="1"/>
       <c r="H64" s="17"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2642,7 +2699,7 @@
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2671,14 +2728,12 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-      <c r="H69" s="17" t="s">
-        <v>68</v>
-      </c>
+      <c r="H69" s="17"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2690,7 +2745,7 @@
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -3271,10 +3326,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66 B100 A2:A18 A20:A127">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66 B100 A2:A18 A20:A127" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Task_Group</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D18 C20:D127">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D18 C20:D127" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Member</formula1>
     </dataValidation>
   </dataValidations>
@@ -3284,10 +3339,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -3346,7 +3401,7 @@
         <v>41</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>31</v>
@@ -3380,7 +3435,7 @@
         <v>41</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>31</v>
@@ -3402,7 +3457,7 @@
         <v>37</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
@@ -3414,7 +3469,7 @@
         <v>41</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>31</v>
@@ -3436,16 +3491,16 @@
         <v>38</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>77</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>34</v>
@@ -3465,16 +3520,16 @@
         <v>37</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>32</v>
@@ -3494,16 +3549,16 @@
         <v>36</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="126" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>32</v>
@@ -3523,7 +3578,7 @@
         <v>37</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -3600,7 +3655,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="7" t="s">
@@ -3617,7 +3672,7 @@
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -3626,7 +3681,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="7" t="s">
@@ -3648,7 +3703,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="7" t="s">
@@ -3670,7 +3725,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="7" t="s">
@@ -3795,23 +3850,23 @@
       <c r="J19" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A2:J16">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J16">
     <sortCondition descending="1" ref="H2:H16"/>
   </sortState>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E19" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Risk_group</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F19" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>Mức_độ_rủi_ro</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G19" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>Xác_suất_rủi_ro</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D19" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>Risk_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I19" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>Strategy_Type</formula1>
     </dataValidation>
   </dataValidations>
@@ -3821,7 +3876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3968,7 +4023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C3:O15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -3986,14 +4041,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C3" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
+      <c r="C3" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
       <c r="L3" s="47"/>
       <c r="M3" s="47"/>
       <c r="N3" s="47"/>
@@ -4001,19 +4056,19 @@
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C4" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="55" t="s">
+      <c r="G4" s="54" t="s">
         <v>140</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="G4" s="54" t="s">
-        <v>142</v>
       </c>
       <c r="H4" s="55"/>
       <c r="L4" s="44"/>
@@ -4023,7 +4078,7 @@
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C5" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" s="58"/>
       <c r="E5" s="59"/>
@@ -4037,7 +4092,7 @@
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C6" s="49" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D6" s="56">
         <v>7.5</v>
@@ -4059,7 +4114,7 @@
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C7" s="49" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D7" s="50">
         <v>7.5</v>
@@ -4081,13 +4136,13 @@
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C8" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="64"/>
+        <v>103</v>
+      </c>
+      <c r="D8" s="64"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
       <c r="L8" s="43"/>
       <c r="M8" s="46"/>
       <c r="N8" s="43"/>
@@ -4095,7 +4150,7 @@
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C9" s="49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" s="50">
         <v>7</v>
@@ -4117,7 +4172,7 @@
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10" s="49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D10" s="50">
         <v>7.5</v>
@@ -4139,13 +4194,13 @@
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="64"/>
+        <v>105</v>
+      </c>
+      <c r="D11" s="64"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="66"/>
       <c r="L11" s="43"/>
       <c r="M11" s="46"/>
       <c r="N11" s="43"/>
@@ -4153,7 +4208,7 @@
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C12" s="49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D12" s="50">
         <v>7.5</v>
@@ -4175,13 +4230,13 @@
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C13" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="64"/>
+        <v>107</v>
+      </c>
+      <c r="D13" s="64"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="66"/>
       <c r="L13" s="43"/>
       <c r="M13" s="46"/>
       <c r="N13" s="43"/>
@@ -4189,7 +4244,7 @@
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C14" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D14" s="50">
         <v>7.5</v>
@@ -4211,7 +4266,7 @@
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C15" s="49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D15" s="50">
         <v>5</v>
@@ -4241,10 +4296,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -4254,67 +4309,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
+      <c r="B1" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="67" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+        <v>111</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
+        <v>112</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
+        <v>113</v>
+      </c>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="67" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
+      <c r="C7" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4328,7 +4383,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -4342,7 +4397,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -4350,21 +4405,21 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
+        <v>121</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
+        <v>122</v>
+      </c>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4380,23 +4435,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="01ab4044-55ac-417a-a05c-524e91f95e54" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010012BF593B6B9D8D409928A49D2E8BC77A" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="152f0301ae63e422ee5ddadeadb62918">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="01ab4044-55ac-417a-a05c-524e91f95e54" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a8304427d3a329948f5dfd83b5c82c1e" ns2:_="">
     <xsd:import namespace="01ab4044-55ac-417a-a05c-524e91f95e54"/>
@@ -4560,10 +4598,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="01ab4044-55ac-417a-a05c-524e91f95e54" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FA7504C-E796-438C-954D-928676B5E4C3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3066AEA0-0FA6-495C-AAA8-40CE6505BA3C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="01ab4044-55ac-417a-a05c-524e91f95e54"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4579,19 +4644,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3066AEA0-0FA6-495C-AAA8-40CE6505BA3C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FA7504C-E796-438C-954D-928676B5E4C3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="01ab4044-55ac-417a-a05c-524e91f95e54"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>